--- a/modules/audio_spectrum/rev_a/audio_spectrum_bom.xlsx
+++ b/modules/audio_spectrum/rev_a/audio_spectrum_bom.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="995" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="audio_spectrum" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="184">
   <si>
     <t xml:space="preserve">Part</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">MOUSER</t>
   </si>
   <si>
+    <t xml:space="preserve">Have parts</t>
+  </si>
+  <si>
     <t xml:space="preserve">C1</t>
   </si>
   <si>
@@ -61,6 +64,9 @@
     <t xml:space="preserve">490-9670-1-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">controller</t>
+  </si>
+  <si>
     <t xml:space="preserve">C2</t>
   </si>
   <si>
@@ -223,6 +229,9 @@
     <t xml:space="preserve">S9170-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">signpost</t>
+  </si>
+  <si>
     <t xml:space="preserve">J2</t>
   </si>
   <si>
@@ -283,6 +292,9 @@
     <t xml:space="preserve">160-1446-1-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">led</t>
+  </si>
+  <si>
     <t xml:space="preserve">LED2</t>
   </si>
   <si>
@@ -380,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">RHM10.0KHCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of stock: Substituting RHM10.0KCFCT-ND</t>
   </si>
   <si>
     <t xml:space="preserve">R8</t>
@@ -571,6 +586,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -588,12 +604,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -630,8 +652,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -652,19 +682,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56"/>
+      <selection pane="topLeft" activeCell="Q52" activeCellId="0" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.6734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="21.8520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="18.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.0765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.75"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,1428 +721,1507 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="C7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>31</v>
-      </c>
       <c r="C13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="C19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="C23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="0" t="n">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="1" t="n">
         <v>1212</v>
       </c>
-      <c r="E34" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>81</v>
+      <c r="E34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="E36" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="F36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="C38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>93</v>
-      </c>
       <c r="D40" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="C41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>103</v>
+      <c r="E42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>107</v>
-      </c>
       <c r="D44" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>108</v>
-      </c>
       <c r="E45" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>109</v>
-      </c>
       <c r="F46" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="E65" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="F65" s="0" t="s">
-        <v>151</v>
+      <c r="A65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="F72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>178</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/modules/audio_spectrum/rev_a/audio_spectrum_bom.xlsx
+++ b/modules/audio_spectrum/rev_a/audio_spectrum_bom.xlsx
@@ -652,7 +652,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -662,6 +662,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,18 +689,18 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q52" activeCellId="0" sqref="Q52"/>
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="23.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.75"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,27 +1513,26 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
